--- a/biology/Botanique/Lasallia/Lasallia.xlsx
+++ b/biology/Botanique/Lasallia/Lasallia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Lasallia (de Lasalle,  peut-être le nom d'un ami ou professeur de Mérat, ou un certain Lasalle, jardinier de Fontainebleau[3]) est un genre de champignons lichénisés de la famille des Umbilicariaceae. Ce taxon comprend 12 espèces saxicoles à répartition cosmopolite, mais qui prédominent dans les régions tempérées des deux hémisphères[4].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Lasallia (de Lasalle,  peut-être le nom d'un ami ou professeur de Mérat, ou un certain Lasalle, jardinier de Fontainebleau) est un genre de champignons lichénisés de la famille des Umbilicariaceae. Ce taxon comprend 12 espèces saxicoles à répartition cosmopolite, mais qui prédominent dans les régions tempérées des deux hémisphères.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les espèces de ce genre sont appelées « toadskin lichens » (lichens à peau de crapaud) dans la langue anglo-saxonne, en référence aux pustules présentes sur la surface supérieure de leur thalle[5].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les espèces de ce genre sont appelées « toadskin lichens » (lichens à peau de crapaud) dans la langue anglo-saxonne, en référence aux pustules présentes sur la surface supérieure de leur thalle.
 </t>
         </is>
       </c>
@@ -543,6 +557,8 @@
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -568,20 +584,22 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon BioLib                    (18 novembre 2017)[2] et ITIS      (18 novembre 2017)[6] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon BioLib                    (18 novembre 2017) et ITIS      (18 novembre 2017) :
 Lasallia papulosa (Ach.) Llano
 Lasallia pennsylvanica (Ach.) Llano
 Lasallia pustulata (L.) Méret
-Selon Catalogue of Life                                   (18 novembre 2017)[7] :
+Selon Catalogue of Life                                   (18 novembre 2017) :
 Lasallia caroliniana (Tuck.) Davydov, Peršoh &amp; Rambold
 Lasallia hispanica (Frey) Sancho &amp; A. Crespo
 Lasallia papulosa (Ach.) Llano
 Lasallia pensylvanica (Hoffm.) Llano
 Lasallia pustulata (L.) Mérat
 Lasallia rossica Dombr.
-Selon Index Fungorum                                      (18 novembre 2017)[8] :
+Selon Index Fungorum                                      (18 novembre 2017) :
 Lasallia asiae-orientalis Asahina 1960
 Lasallia brigantium (Zschacke) Llano 1950
 Lasallia caeonshanensis J.C. Wei 1982
@@ -605,7 +623,7 @@
 Lasallia sinensis J.C. Wei 1966
 Lasallia sinorientalis J.C. Wei 1982
 Lasallia xizangensis J.C. Wei &amp; Y.M. Jiang 1982
-Selon NCBI  (18 novembre 2017)[9] :
+Selon NCBI  (18 novembre 2017) :
 Lasallia caroliniana
 Lasallia daliensis
 variété Lasallia daliensis var. caeonshanensis
